--- a/01_硬件/家中物料存货.xlsx
+++ b/01_硬件/家中物料存货.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="285">
   <si>
     <t>名称</t>
   </si>
@@ -818,6 +818,72 @@
   </si>
   <si>
     <t>音频芯片</t>
+  </si>
+  <si>
+    <t>BZT52C3V3S</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>BZT52B5V1S</t>
+  </si>
+  <si>
+    <t>5V1</t>
+  </si>
+  <si>
+    <t>BZT52C9V1S</t>
+  </si>
+  <si>
+    <t>9V1</t>
+  </si>
+  <si>
+    <t>XL-1615RGBC-RF</t>
+  </si>
+  <si>
+    <t>CA45-C016K107T</t>
+  </si>
+  <si>
+    <t>100UF</t>
+  </si>
+  <si>
+    <t>AO3400A</t>
+  </si>
+  <si>
+    <t>TAJC476K016RNJ</t>
+  </si>
+  <si>
+    <t>XH 2.54MM 1X8P</t>
+  </si>
+  <si>
+    <t>1x8P</t>
+  </si>
+  <si>
+    <t>AO4407A</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>510K</t>
+  </si>
+  <si>
+    <t>ESP-8266</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>保险丝</t>
+  </si>
+  <si>
+    <t>耐压6V 工作0.5A 跳匝1A</t>
+  </si>
+  <si>
+    <t>MPU6050</t>
+  </si>
+  <si>
+    <t>LIS2DW12TR</t>
   </si>
 </sst>
 </file>
@@ -1764,10 +1830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K136"/>
+  <dimension ref="B1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3672,6 +3738,183 @@
       </c>
       <c r="C136" s="2" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>265</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E141" s="2">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>272</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E143" s="2">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>276</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5">
+      <c r="C146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" t="s">
+        <v>279</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" s="2">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
